--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1273989.406308581</v>
+        <v>1269976.796294589</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>257.4305823736181</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>331.4097589280062</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -794,7 +794,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>14.57567088453384</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.45713216103655</v>
+        <v>78.78083674902071</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>26.7337002262894</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>33.78298043858059</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>186.1590670005672</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>47.3866485609004</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444168</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3135037226519</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523325</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701368</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>85.08368458989509</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.938329309431</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936201</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>19.17715139986167</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.1006680594871</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.1628130171261</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.17715139986167</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>245.879692121443</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4157347120547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1879.829578210439</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1510.867061270028</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1152.601362663277</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.601362663277</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>741.6154578736698</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>326.5430077186663</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y2" t="n">
-        <v>2266.429418274561</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>624.6477645191717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>576.372060369826</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>407.4358774419192</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>576.372060369826</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>576.372060369826</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>576.372060369826</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.372060369826</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092019</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4104964852681</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>511.6222438870239</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>100.6363390974163</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3137.566359992436</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2806.503472648865</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>114.3774180088505</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>114.3774180088505</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>114.3774180088505</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>114.3774180088505</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>114.3774180088505</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>114.3774180088505</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4995,19 +4995,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>342.3669689068678</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>114.3774180088505</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.3774180088505</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362717</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>251.5626541092253</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249843</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>916.2946447138411</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2427.833458015179</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2244.978623670083</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.377158693024</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.301932037222</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.617443831335</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.200273794374</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556308</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>483.8760050556308</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>336.9860575577204</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4262.043050609448</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3972.967823953646</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3972.967823953646</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2854.440648734749</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2273.199413378161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.71655096576</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2357.803457383367</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3972.967823953646</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>3972.967823953646</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2794.50775589162</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2794.50775589162</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2794.50775589162</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.3019692955605</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>104.8770068749558</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>55.21102825632877</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43691740069068</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>45.44677382459221</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>146.3469868924072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>40.30478226780113</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>83.27114962944307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.3047822678011</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.4162454698826</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387906</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26322,37 +26322,37 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.959814004</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140037</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474469</v>
+        <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
         <v>291094.377253124</v>
@@ -26530,40 +26530,40 @@
         <v>291094.377253124</v>
       </c>
       <c r="E6" t="n">
-        <v>42926.27214087409</v>
+        <v>42578.89288651657</v>
       </c>
       <c r="F6" t="n">
-        <v>368338.7339482292</v>
+        <v>367991.3546938724</v>
       </c>
       <c r="G6" t="n">
-        <v>368338.7339482292</v>
+        <v>367991.3546938723</v>
       </c>
       <c r="H6" t="n">
-        <v>368338.7339482291</v>
+        <v>367991.3546938724</v>
       </c>
       <c r="I6" t="n">
-        <v>368338.7339482291</v>
+        <v>367991.3546938722</v>
       </c>
       <c r="J6" t="n">
-        <v>150807.5315509516</v>
+        <v>150460.1522965947</v>
       </c>
       <c r="K6" t="n">
-        <v>368338.7339482291</v>
+        <v>367991.354693872</v>
       </c>
       <c r="L6" t="n">
-        <v>368338.7339482291</v>
+        <v>367991.3546938721</v>
       </c>
       <c r="M6" t="n">
-        <v>283283.7060127172</v>
+        <v>282936.3267583601</v>
       </c>
       <c r="N6" t="n">
-        <v>368338.7339482291</v>
+        <v>367991.3546938722</v>
       </c>
       <c r="O6" t="n">
-        <v>368338.7339482292</v>
+        <v>367991.3546938722</v>
       </c>
       <c r="P6" t="n">
-        <v>368338.7339482292</v>
+        <v>367991.3546938722</v>
       </c>
     </row>
   </sheetData>
@@ -26792,19 +26792,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973568</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973568</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973568</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>37.17718201370241</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>17.83120978940678</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>211.1339845045033</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.276709502444</v>
+        <v>303.9530049144599</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>121.881772791923</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>377.1387452148729</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.83610495833477</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>97.36836635342038</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>146.022599109307</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>359.1374415194863</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>391.9250669264611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226051</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>160.6314956130963</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134948053</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121309</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427309</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.64972152707474</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1269976.796294589</v>
+        <v>1271737.326597374</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>401.1745726909067</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>331.4097589280062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414557</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>144.4212067879753</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.78083674902071</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>252.4010106926956</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.28190385754367</v>
       </c>
       <c r="U8" t="n">
-        <v>186.1590670005672</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444168</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>112.5284434523325</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>85.08368458989509</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.8567702508357</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>103.1686991936201</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="G22" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>41.74133133758713</v>
+        <v>128.3548363691425</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890411</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>187.792060649081</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>19.17715139986167</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184371</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>105.8965430419528</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1995.741330469123</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1626.778813528712</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1268.513114921961</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>882.7248623237169</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>471.7389575341094</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2421.049596543812</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2047.583838282732</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="3">
@@ -4406,34 +4406,34 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
         <v>2435.471302619336</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>360.3052168711173</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>541.953681701357</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>541.953681701357</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>541.953681701357</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>541.953681701357</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>541.953681701357</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1816.082987429757</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1457.817288823007</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1072.029036224763</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>661.0431314351551</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450754</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.529887077737</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3170.585957320566</v>
       </c>
       <c r="U8" t="n">
-        <v>3137.566359992436</v>
+        <v>3170.585957320566</v>
       </c>
       <c r="V8" t="n">
-        <v>2806.503472648865</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W8" t="n">
-        <v>2453.73481737875</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X8" t="n">
-        <v>2080.269059117671</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.129727141859</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4944,67 +4944,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362717</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092253</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249843</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5296,22 +5296,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597628</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474271</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474271</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474271</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>261.8464821474271</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2424.885537872346</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2242.03070352725</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2022.429238550191</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1733.354011894389</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1478.669523688502</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1189.252353651541</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>961.2628027535235</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="17">
@@ -5497,52 +5497,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458823</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>118.9001641222453</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6138,13 +6138,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6311,22 +6311,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,31 +6718,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>835.5837926935519</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>835.5837926935519</v>
       </c>
       <c r="D34" t="n">
-        <v>430.7826650753331</v>
+        <v>685.4671532812162</v>
       </c>
       <c r="E34" t="n">
-        <v>282.8695714929399</v>
+        <v>537.554059698823</v>
       </c>
       <c r="F34" t="n">
-        <v>135.9796239950296</v>
+        <v>390.6641122009127</v>
       </c>
       <c r="G34" t="n">
-        <v>135.9796239950296</v>
+        <v>223.4680129157926</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6894,16 +6894,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1238.024836667322</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1017.232257523792</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1498.696903704119</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>483.8760050556308</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>104.8770068749558</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>55.21102825632877</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>44.51847645928598</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>45.44677382459221</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>110.0033420516698</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>98.55338150863676</v>
+        <v>11.93987647708138</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>64.34558267474705</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>32.89260457060001</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>39.52450498097841</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>942247.3008387906</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387906</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185699</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.959814004</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26334,10 +26334,10 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140035</v>
@@ -26346,7 +26346,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26355,7 +26355,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355121</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474468</v>
+        <v>-1037650.368474469</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531244</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="E6" t="n">
-        <v>42578.89288651657</v>
+        <v>42891.53421543827</v>
       </c>
       <c r="F6" t="n">
-        <v>367991.3546938724</v>
+        <v>368303.9960227935</v>
       </c>
       <c r="G6" t="n">
-        <v>367991.3546938723</v>
+        <v>368303.9960227934</v>
       </c>
       <c r="H6" t="n">
-        <v>367991.3546938724</v>
+        <v>368303.9960227934</v>
       </c>
       <c r="I6" t="n">
-        <v>367991.3546938722</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="J6" t="n">
-        <v>150460.1522965947</v>
+        <v>150772.7936255159</v>
       </c>
       <c r="K6" t="n">
-        <v>367991.354693872</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="L6" t="n">
-        <v>367991.3546938721</v>
+        <v>368303.9960227934</v>
       </c>
       <c r="M6" t="n">
-        <v>282936.3267583601</v>
+        <v>283248.9680872814</v>
       </c>
       <c r="N6" t="n">
-        <v>367991.3546938722</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="O6" t="n">
-        <v>367991.3546938722</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="P6" t="n">
-        <v>367991.3546938722</v>
+        <v>368303.9960227934</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973568</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973568</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973568</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.74715296254675</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>17.83120978940678</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.8256143106525</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303.9530049144599</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>158.5207149607579</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>159.6360662820765</v>
       </c>
       <c r="U8" t="n">
-        <v>64.83610495833477</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29204,7 +29204,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29972,7 +29972,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-2.355346330481042e-12</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.022599109307</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134948053</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
